--- a/Documentation/Graphs.xlsx
+++ b/Documentation/Graphs.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="8625" windowHeight="8205" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="8625" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="neargauss_test" sheetId="1" r:id="rId1"/>
     <sheet name="nextgauss_test" sheetId="2" r:id="rId2"/>
     <sheet name="Expected" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1686,11 +1686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1514876960"/>
-        <c:axId val="1514878048"/>
+        <c:axId val="-393544864"/>
+        <c:axId val="-393538336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1514876960"/>
+        <c:axId val="-393544864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,12 +1747,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1514878048"/>
+        <c:crossAx val="-393538336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1514878048"/>
+        <c:axId val="-393538336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1514876960"/>
+        <c:crossAx val="-393544864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1873,7 +1873,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2262,11 +2261,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1522405856"/>
-        <c:axId val="1522403136"/>
+        <c:axId val="-393542688"/>
+        <c:axId val="-467453232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1522405856"/>
+        <c:axId val="-393542688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,12 +2322,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522403136"/>
+        <c:crossAx val="-467453232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1522403136"/>
+        <c:axId val="-467453232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,7 +2384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522405856"/>
+        <c:crossAx val="-393542688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3881,8 +3880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4862,8 +4861,8 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E59">
-        <f>SUM(E9:E57)/B4</f>
-        <v>1.0611260020806528E-3</v>
+        <f>SUM(E9:E57)/50</f>
+        <v>2.1222520041613055</v>
       </c>
     </row>
   </sheetData>
@@ -4876,7 +4875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -5854,8 +5853,8 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E59">
-        <f>SUM(E9:E58)/B4</f>
-        <v>5.4009862023220384E-4</v>
+        <f>SUM(E9:E58)/50</f>
+        <v>1.0801972404644078</v>
       </c>
     </row>
   </sheetData>
